--- a/Calc.xlsx
+++ b/Calc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\X1\DroneLab\BeestiDrones\Projects\Stepper control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_MCU\Stepper control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEE94CF-C7FD-47A5-BB0C-8DD88B5CA548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10FD5AC-30CE-4170-9886-873AEC6140BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8EF15A3B-5BEE-4AE4-852A-AB59A39E9FF7}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,7 +149,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>1024</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>1024</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24">
         <f>(B22*B17)/(B23*B21*6*B18)-1</f>
-        <v>1.34375</v>
+        <v>36.5</v>
       </c>
       <c r="D24">
         <f>(D22*D17)/(D23*D21*6*D18)-1</f>
@@ -679,7 +679,7 @@
       </c>
       <c r="B25">
         <f>(B22*B17)/(B23*B21*6*B19)-1</f>
-        <v>2342.75</v>
+        <v>37499</v>
       </c>
       <c r="D25">
         <f>(D22*D17)/(D23*D21*6*D19)-1</f>

--- a/Calc.xlsx
+++ b/Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_MCU\Stepper control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10FD5AC-30CE-4170-9886-873AEC6140BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58926E3C-CBCB-48DB-A35A-017DE1BD88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{8EF15A3B-5BEE-4AE4-852A-AB59A39E9FF7}"/>
+    <workbookView xWindow="7680" yWindow="1104" windowWidth="23040" windowHeight="12204" xr2:uid="{8EF15A3B-5BEE-4AE4-852A-AB59A39E9FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
